--- a/数据整理/stocks/A股/上证主板/600285-羚锐制药.xlsx
+++ b/数据整理/stocks/A股/上证主板/600285-羚锐制药.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>81.41</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>6.87</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>81.41</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>6.87</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.28</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.40</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600285-羚锐制药.xlsx
+++ b/数据整理/stocks/A股/上证主板/600285-羚锐制药.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -669,4 +670,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>61.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7564</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007254</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发均衡价值混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005910</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发龙头优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600285-羚锐制药.xlsx
+++ b/数据整理/stocks/A股/上证主板/600285-羚锐制药.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -954,4 +955,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>55.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7711</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>52.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8642</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>55.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2689</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1348</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1282</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010457</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>61.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1246</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>162717</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发再融资主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007254</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发均衡价值混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005910</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发龙头优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010458</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>61.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600285-羚锐制药.xlsx
+++ b/数据整理/stocks/A股/上证主板/600285-羚锐制药.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1467,4 +1468,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600285-羚锐制药.xlsx
+++ b/数据整理/stocks/A股/上证主板/600285-羚锐制药.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1476,7 +1477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1487,17 +1488,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1507,14 +1528,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.55</v>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>148.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>55.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2191</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1523,14 +1566,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.98</v>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>53.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7585</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1539,14 +1604,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.03</v>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4832</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1555,13 +1642,797 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>55.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3348</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2181</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1879</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010457</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>72.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1820</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009623</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1752</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1106</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>162717</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发再融资主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>42.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005910</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发龙头优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007254</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发均衡价值混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010711</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华富国潮优选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>44.28</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>44.28</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600285-羚锐制药.xlsx
+++ b/数据整理/stocks/A股/上证主板/600285-羚锐制药.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2331,7 +2332,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2342,17 +2343,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2362,14 +2383,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.21</v>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>70.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>43.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9285</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2378,14 +2421,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.55</v>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8797</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2394,14 +2459,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.98</v>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3553</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2410,14 +2497,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.03</v>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>43.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3148</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2426,13 +2535,547 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2285</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>50.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1588</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010457</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>60.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1525</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1474</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007254</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发均衡价值混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005910</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发龙头优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010458</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>60.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006780</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发稳健策略混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>65.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010711</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华富国潮优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600285-羚锐制药.xlsx
+++ b/数据整理/stocks/A股/上证主板/600285-羚锐制药.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2958,7 +2959,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2969,17 +2970,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2989,14 +3010,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.39</v>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>46.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5670</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3005,14 +3048,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.21</v>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6364</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -3021,14 +3086,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.55</v>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>53.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3130</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3037,14 +3124,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.98</v>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>46.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2961</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -3053,14 +3162,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.03</v>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2879</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -3069,13 +3200,373 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010457</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1446</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1397</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015495</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015496</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007254</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发均衡价值混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010458</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600285-羚锐制药.xlsx
+++ b/数据整理/stocks/A股/上证主板/600285-羚锐制药.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>3.56</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>4.39</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>7.21</v>
+        <v>4.39</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>3.55</v>
+        <v>7.21</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>0.98</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -600,6 +617,744 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>52.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>46.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5732</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2923</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>46.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2844</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2553</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>51.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2079</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>50.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010457</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1133</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>61.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007254</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发均衡价值混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>50.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010458</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>73.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013154</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>61.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015356</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1073,7 +1828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1699,7 +2454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2553,7 +3308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3065,7 +3820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3349,7 +4104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3443,7 +4198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600285-羚锐制药.xlsx
+++ b/数据整理/stocks/A股/上证主板/600285-羚锐制药.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>3.26</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>3.56</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>4.39</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>7.21</v>
+        <v>4.39</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>3.55</v>
+        <v>7.21</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>0.98</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -616,7 +633,803 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>52.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>49.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7848</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4376</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3779</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>49.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3144</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008372</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国阿尔法两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3059</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>50.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2869</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>53.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1815</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012294</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康优势精选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1466</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010457</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1279</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007254</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发均衡价值混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>61.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>53.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010458</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>61.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013154</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1354,7 +2167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1828,7 +2641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2454,7 +3267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3308,7 +4121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3820,7 +4633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4104,7 +4917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4196,136 +5009,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005505</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源中药研究精选股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>81.41</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0371</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005506</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源中药研究精选股票C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>81.41</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0234</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>